--- a/nfl-player-total-20160623/nfl-player-total-20160623.xlsx
+++ b/nfl-player-total-20160623/nfl-player-total-20160623.xlsx
@@ -38,6 +38,9 @@
     <t>headline</t>
   </si>
   <si>
+    <t>NFL Player Totals By State</t>
+  </si>
+  <si>
     <t>AL</t>
   </si>
   <si>
@@ -50,207 +53,204 @@
     <t>AK</t>
   </si>
   <si>
-    <t>NFL Player Totals By State</t>
-  </si>
-  <si>
     <t>NFL Player Rate By State</t>
   </si>
   <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Ariz.</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Ark.</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Calif.</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colo.</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Conn.</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Del.</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>D.C.</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Fla.</t>
+  </si>
+  <si>
     <t>subhed</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Ga.</t>
+  </si>
+  <si>
     <t xml:space="preserve">More than 20,000 men have played in the National Football League. Those born in states in the Deep South and Rust Belt have overrepresented other parts of the country as a proportion of current state population. </t>
   </si>
   <si>
     <t xml:space="preserve">More than 20,000 men have played in the National Football League. The raw numbers of pro players born in each state roughly resembles a population map of the country. </t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>Ariz.</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>Ark.</t>
-  </si>
-  <si>
-    <t>California</t>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>HI</t>
   </si>
   <si>
     <t>keychatter</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>Players per 100,000 Residents</t>
   </si>
   <si>
-    <t>Calif.</t>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>footnote</t>
+  </si>
+  <si>
+    <t>State population totals represent 2014 estimates of adult males; More than 500 players born overseas.</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Ill.</t>
+  </si>
+  <si>
+    <t>Indiana</t>
   </si>
   <si>
     <t>Total Players</t>
   </si>
   <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colo.</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>footnote</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>Conn.</t>
-  </si>
-  <si>
-    <t>State population totals represent 2014 estimates of adult males; More than 500 players born overseas.</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>Del.</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>D.C.</t>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Ind.</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Kan.</t>
   </si>
   <si>
     <t>source</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>Fla.</t>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Ky.</t>
   </si>
   <si>
     <t>Pro Football Reference (&lt;a href="http://www.pro-football-reference.com/friv/birthplaces.htm#undefined::none"&gt;NFL players&lt;/a&gt;); U.S. Census Bureau (&lt;a href="http://factfinder.census.gov/bkmk/table/1.0/en/ACS/14_1YR/S0101/0100000US.04000"&gt;population&lt;/a&gt;)</t>
   </si>
   <si>
-    <t>Georgia</t>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>La.</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>MD</t>
   </si>
   <si>
     <t>Pro Football Reference (&lt;a href="http://www.pro-football-reference.com/friv/birthplaces.htm#undefined::none"&gt;NFL players&lt;/a&gt;)</t>
   </si>
   <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>Ga.</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>Ill.</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>Ind.</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>Kan.</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Ky.</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>La.</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
     <t>Md.</t>
   </si>
   <si>
@@ -575,43 +575,43 @@
     <t>&gt; 30</t>
   </si>
   <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>101-300</t>
+  </si>
+  <si>
     <t>0-10</t>
   </si>
   <si>
     <t>3-5</t>
   </si>
   <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>101-300</t>
+    <t>Mountain</t>
   </si>
   <si>
     <t>East South Central</t>
   </si>
   <si>
-    <t>Mountain</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
+    <t>301-700</t>
+  </si>
+  <si>
+    <t>West South Central</t>
+  </si>
+  <si>
+    <t>&gt; 8</t>
+  </si>
+  <si>
+    <t>701-1,200</t>
+  </si>
+  <si>
     <t>&lt; 3</t>
   </si>
   <si>
     <t>Pacific</t>
-  </si>
-  <si>
-    <t>301-700</t>
-  </si>
-  <si>
-    <t>West South Central</t>
-  </si>
-  <si>
-    <t>&gt; 8</t>
-  </si>
-  <si>
-    <t>701-1,200</t>
   </si>
   <si>
     <t>West North Central</t>
@@ -680,55 +680,50 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -738,27 +733,30 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -807,582 +805,582 @@
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
     </row>
     <row r="11" ht="33.0" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
     </row>
     <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
     </row>
     <row r="17" ht="33.0" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
     </row>
     <row r="18" ht="33.0" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
     </row>
     <row r="19" ht="33.0" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
     </row>
     <row r="20" ht="33.0" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
     </row>
     <row r="21" ht="33.0" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1391,6 +1389,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1437,582 +1438,582 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
     </row>
     <row r="11" ht="33.0" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
     </row>
     <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
     </row>
     <row r="17" ht="33.0" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
     </row>
     <row r="18" ht="33.0" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
     </row>
     <row r="19" ht="33.0" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
     </row>
     <row r="20" ht="33.0" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
     </row>
     <row r="21" ht="33.0" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2021,6 +2022,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2047,247 +2051,247 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="D21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>78</v>
@@ -2319,16 +2323,16 @@
       <c r="D24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
@@ -2382,13 +2386,13 @@
       <c r="A30" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
@@ -2427,16 +2431,16 @@
       <c r="D33" s="3"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
@@ -2490,13 +2494,13 @@
       <c r="A39" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -2535,16 +2539,16 @@
       <c r="D42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -2598,13 +2602,13 @@
       <c r="A48" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
@@ -2643,16 +2647,16 @@
       <c r="D51" s="3"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="5"/>
     </row>
     <row r="53">
       <c r="A53" s="3"/>
@@ -2679,6 +2683,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2791,10 +2798,10 @@
         <v>4.26</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3">
@@ -2808,7 +2815,7 @@
         <v>32.0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="10">
         <v>45.0</v>
@@ -2841,10 +2848,10 @@
         <v>5.68</v>
       </c>
       <c r="O3" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="4">
@@ -2891,24 +2898,24 @@
         <v>2.68</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6">
         <v>2.0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E5" s="10">
         <v>13.0</v>
@@ -2941,18 +2948,18 @@
         <v>1.88</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="C6" s="6">
         <v>23.0</v>
@@ -2991,10 +2998,10 @@
         <v>1.51</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7">
@@ -3008,7 +3015,7 @@
         <v>35.0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="10">
         <v>38.0</v>
@@ -3041,7 +3048,7 @@
         <v>6.02</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>192</v>
@@ -3049,16 +3056,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6">
         <v>4.0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E8" s="10">
         <v>157.0</v>
@@ -3091,24 +3098,24 @@
         <v>4.64</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6">
         <v>8.0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E9" s="10">
         <v>153.0</v>
@@ -3141,18 +3148,18 @@
         <v>4.19</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C10" s="6">
         <v>10.0</v>
@@ -3191,18 +3198,18 @@
         <v>3.25</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="C11" s="6">
         <v>24.0</v>
@@ -3241,7 +3248,7 @@
         <v>6.99</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>192</v>
@@ -3291,10 +3298,10 @@
         <v>5.4</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="13">
@@ -3308,7 +3315,7 @@
         <v>53.0</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E13" s="10">
         <v>266.0</v>
@@ -3341,24 +3348,24 @@
         <v>5.5</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C14" s="6">
         <v>16.0</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E14" s="10">
         <v>59.0</v>
@@ -3391,10 +3398,10 @@
         <v>4.98</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
@@ -3408,7 +3415,7 @@
         <v>41.0</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E15" s="10">
         <v>154.0</v>
@@ -3444,7 +3451,7 @@
         <v>204</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16">
@@ -3494,7 +3501,7 @@
         <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
@@ -3508,7 +3515,7 @@
         <v>49.0</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E17" s="10">
         <v>107.0</v>
@@ -3544,21 +3551,21 @@
         <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C18" s="6">
         <v>21.0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E18" s="10">
         <v>208.0</v>
@@ -3594,7 +3601,7 @@
         <v>204</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
@@ -3649,10 +3656,10 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C20" s="6">
         <v>9.0</v>
@@ -3694,7 +3701,7 @@
         <v>204</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
@@ -3708,7 +3715,7 @@
         <v>56.0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E21" s="10">
         <v>30.0</v>
@@ -3744,7 +3751,7 @@
         <v>204</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
@@ -3799,16 +3806,16 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C23" s="6">
         <v>6.0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E23" s="11">
         <v>2040.0</v>
@@ -3844,15 +3851,15 @@
         <v>204</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C24" s="6">
         <v>12.0</v>
@@ -3994,7 +4001,7 @@
         <v>205</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27">
@@ -4008,7 +4015,7 @@
         <v>47.0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E27" s="10">
         <v>374.0</v>
@@ -4044,7 +4051,7 @@
         <v>205</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28">
@@ -4058,7 +4065,7 @@
         <v>30.0</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E28" s="10">
         <v>62.0</v>
@@ -4094,15 +4101,15 @@
         <v>205</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C29" s="6">
         <v>18.0</v>
@@ -4144,21 +4151,21 @@
         <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C30" s="6">
         <v>15.0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E30" s="10">
         <v>91.0</v>
@@ -4194,7 +4201,7 @@
         <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31">
@@ -4294,7 +4301,7 @@
         <v>205</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33">
@@ -4344,7 +4351,7 @@
         <v>205</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34">
@@ -4394,7 +4401,7 @@
         <v>205</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35">
@@ -4444,7 +4451,7 @@
         <v>205</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36">
@@ -4494,15 +4501,15 @@
         <v>205</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C37" s="6">
         <v>13.0</v>
@@ -4549,10 +4556,10 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C38" s="6">
         <v>20.0</v>
@@ -4644,15 +4651,15 @@
         <v>205</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C40" s="6">
         <v>17.0</v>
@@ -4694,7 +4701,7 @@
         <v>202</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41">
@@ -4708,7 +4715,7 @@
         <v>48.0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E41" s="11">
         <v>2120.0</v>
@@ -4794,15 +4801,15 @@
         <v>202</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C43" s="6">
         <v>19.0</v>
@@ -4844,21 +4851,21 @@
         <v>202</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C44" s="6">
         <v>5.0</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E44" s="10">
         <v>282.0</v>
@@ -4894,7 +4901,7 @@
         <v>202</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45">
@@ -4958,7 +4965,7 @@
         <v>40.0</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E46" s="10">
         <v>428.0</v>
@@ -5044,7 +5051,7 @@
         <v>185</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48">
@@ -5094,7 +5101,7 @@
         <v>185</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49">
@@ -5102,13 +5109,13 @@
         <v>5</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" s="6">
         <v>1.0</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E49" s="10">
         <v>623.0</v>
@@ -5144,21 +5151,21 @@
         <v>185</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C50" s="6">
         <v>22.0</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E50" s="10">
         <v>769.0</v>
@@ -5194,7 +5201,7 @@
         <v>185</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51">
@@ -5208,7 +5215,7 @@
         <v>28.0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E51" s="10">
         <v>573.0</v>
@@ -5249,10 +5256,10 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C52" s="6">
         <v>11.0</v>
@@ -5294,7 +5301,7 @@
         <v>185</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53">
@@ -10044,6 +10051,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10129,10 +10139,10 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C2" s="6">
         <v>11.0</v>
@@ -10174,10 +10184,10 @@
         <v>185</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3">
@@ -10191,7 +10201,7 @@
         <v>28.0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E3" s="10">
         <v>573.0</v>
@@ -10230,21 +10240,21 @@
         <v>192</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" s="6">
         <v>22.0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E4" s="10">
         <v>769.0</v>
@@ -10280,10 +10290,10 @@
         <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5">
@@ -10291,13 +10301,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6">
         <v>1.0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E5" s="10">
         <v>623.0</v>
@@ -10333,10 +10343,10 @@
         <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6">
@@ -10386,10 +10396,10 @@
         <v>185</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="7">
@@ -10439,7 +10449,7 @@
         <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>201</v>
@@ -10456,7 +10466,7 @@
         <v>40.0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E8" s="10">
         <v>428.0</v>
@@ -10495,7 +10505,7 @@
         <v>192</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9">
@@ -10553,16 +10563,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6">
         <v>5.0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E10" s="10">
         <v>282.0</v>
@@ -10598,18 +10608,18 @@
         <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C11" s="6">
         <v>19.0</v>
@@ -10651,10 +10661,10 @@
         <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12">
@@ -10704,10 +10714,10 @@
         <v>202</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
@@ -10721,7 +10731,7 @@
         <v>48.0</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E13" s="11">
         <v>2120.0</v>
@@ -10765,10 +10775,10 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C14" s="6">
         <v>17.0</v>
@@ -10810,10 +10820,10 @@
         <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15">
@@ -10863,18 +10873,18 @@
         <v>205</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C16" s="6">
         <v>20.0</v>
@@ -10919,15 +10929,15 @@
         <v>192</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C17" s="6">
         <v>13.0</v>
@@ -10972,7 +10982,7 @@
         <v>192</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
@@ -11022,10 +11032,10 @@
         <v>205</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
@@ -11075,10 +11085,10 @@
         <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
@@ -11128,10 +11138,10 @@
         <v>205</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
@@ -11181,7 +11191,7 @@
         <v>205</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>206</v>
@@ -11234,7 +11244,7 @@
         <v>205</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>206</v>
@@ -11290,21 +11300,21 @@
         <v>192</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C24" s="6">
         <v>15.0</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E24" s="10">
         <v>91.0</v>
@@ -11340,7 +11350,7 @@
         <v>205</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>206</v>
@@ -11348,10 +11358,10 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C25" s="6">
         <v>18.0</v>
@@ -11393,10 +11403,10 @@
         <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
@@ -11410,7 +11420,7 @@
         <v>30.0</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E26" s="10">
         <v>62.0</v>
@@ -11446,7 +11456,7 @@
         <v>205</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>206</v>
@@ -11463,7 +11473,7 @@
         <v>47.0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E27" s="10">
         <v>374.0</v>
@@ -11499,10 +11509,10 @@
         <v>205</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28">
@@ -11552,10 +11562,10 @@
         <v>205</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29">
@@ -11608,15 +11618,15 @@
         <v>192</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C30" s="6">
         <v>12.0</v>
@@ -11661,21 +11671,21 @@
         <v>192</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C31" s="6">
         <v>6.0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E31" s="11">
         <v>2040.0</v>
@@ -11711,7 +11721,7 @@
         <v>204</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>201</v>
@@ -11767,7 +11777,7 @@
         <v>192</v>
       </c>
       <c r="Q32" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
@@ -11781,7 +11791,7 @@
         <v>56.0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E33" s="10">
         <v>30.0</v>
@@ -11817,7 +11827,7 @@
         <v>204</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>206</v>
@@ -11825,10 +11835,10 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C34" s="6">
         <v>9.0</v>
@@ -11870,10 +11880,10 @@
         <v>204</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35">
@@ -11926,21 +11936,21 @@
         <v>192</v>
       </c>
       <c r="Q35" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C36" s="6">
         <v>21.0</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E36" s="10">
         <v>208.0</v>
@@ -11976,10 +11986,10 @@
         <v>204</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q36" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37">
@@ -11993,7 +12003,7 @@
         <v>49.0</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E37" s="10">
         <v>107.0</v>
@@ -12029,10 +12039,10 @@
         <v>204</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q37" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="Q37" s="12" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="38">
@@ -12082,10 +12092,10 @@
         <v>204</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39">
@@ -12099,7 +12109,7 @@
         <v>41.0</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E39" s="10">
         <v>154.0</v>
@@ -12135,24 +12145,24 @@
         <v>204</v>
       </c>
       <c r="P39" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q39" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="Q39" s="12" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C40" s="6">
         <v>16.0</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E40" s="10">
         <v>59.0</v>
@@ -12185,10 +12195,10 @@
         <v>4.98</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q40" s="12" t="s">
         <v>206</v>
@@ -12205,7 +12215,7 @@
         <v>53.0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E41" s="10">
         <v>266.0</v>
@@ -12238,13 +12248,13 @@
         <v>5.5</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P41" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="Q41" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42">
@@ -12291,10 +12301,10 @@
         <v>5.4</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="Q42" s="12" t="s">
         <v>206</v>
@@ -12302,10 +12312,10 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="C43" s="6">
         <v>24.0</v>
@@ -12344,21 +12354,21 @@
         <v>6.99</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>192</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C44" s="6">
         <v>10.0</v>
@@ -12397,10 +12407,10 @@
         <v>3.25</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q44" s="12" t="s">
         <v>206</v>
@@ -12408,16 +12418,16 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C45" s="6">
         <v>8.0</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E45" s="10">
         <v>153.0</v>
@@ -12450,27 +12460,27 @@
         <v>4.19</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P45" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q45" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="Q45" s="12" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C46" s="6">
         <v>4.0</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E46" s="10">
         <v>157.0</v>
@@ -12503,13 +12513,13 @@
         <v>4.64</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P46" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q46" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="Q46" s="12" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="47">
@@ -12523,7 +12533,7 @@
         <v>35.0</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E47" s="10">
         <v>38.0</v>
@@ -12556,7 +12566,7 @@
         <v>6.02</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>192</v>
@@ -12567,10 +12577,10 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="C48" s="6">
         <v>23.0</v>
@@ -12609,10 +12619,10 @@
         <v>1.51</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q48" s="12" t="s">
         <v>206</v>
@@ -12620,16 +12630,16 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49" s="6">
         <v>2.0</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E49" s="10">
         <v>13.0</v>
@@ -12662,10 +12672,10 @@
         <v>1.88</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q49" s="12" t="s">
         <v>206</v>
@@ -12715,10 +12725,10 @@
         <v>2.68</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q50" s="12" t="s">
         <v>206</v>
@@ -12735,7 +12745,7 @@
         <v>32.0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E51" s="10">
         <v>45.0</v>
@@ -12768,10 +12778,10 @@
         <v>5.68</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="Q51" s="12" t="s">
         <v>206</v>
@@ -12821,10 +12831,10 @@
         <v>4.26</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q52" s="12" t="s">
         <v>206</v>
